--- a/game/Fish/Excel/GunValue.xlsx
+++ b/game/Fish/Excel/GunValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t xml:space="preserve">Config</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gameId</t>
   </si>
   <si>
     <t xml:space="preserve">roomId</t>
@@ -64,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏Id</t>
   </si>
   <si>
     <r>
@@ -685,7 +691,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -715,19 +721,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -743,33 +749,42 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -785,705 +800,858 @@
       <c r="D4" s="5" t="n">
         <v>3</v>
       </c>
+      <c r="E4" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="C54" s="7" t="n">
+        <v>2004</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1666,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4">
+  <conditionalFormatting sqref="B4 B2:C2 B1:B2">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1506,6 +1674,17 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game/Fish/Excel/GunValue.xlsx
+++ b/game/Fish/Excel/GunValue.xlsx
@@ -723,8 +723,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1645,7 +1645,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>20</v>

--- a/game/Fish/Excel/GunValue.xlsx
+++ b/game/Fish/Excel/GunValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -691,13 +691,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game/Fish/Excel/GunValue.xlsx
+++ b/game/Fish/Excel/GunValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
   <si>
     <t xml:space="preserve">Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -689,22 +692,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +731,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,53 +746,53 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -808,852 +814,852 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C35" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="C45" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
